--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26318,6 +26318,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>45446.2916666667</v>
+      </c>
+      <c r="B971" t="n">
+        <v>0</v>
+      </c>
+      <c r="C971" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D971" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E971" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F971" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G971" t="s">
+        <v>245</v>
+      </c>
+      <c r="H971" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26344,6 +26344,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>45447.2916666667</v>
+      </c>
+      <c r="B972" t="n">
+        <v>0</v>
+      </c>
+      <c r="C972" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D972" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E972" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F972" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G972" t="s">
+        <v>245</v>
+      </c>
+      <c r="H972" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26370,6 +26370,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>45448.2916666667</v>
+      </c>
+      <c r="B973" t="n">
+        <v>0</v>
+      </c>
+      <c r="C973" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D973" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E973" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F973" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G973" t="s">
+        <v>245</v>
+      </c>
+      <c r="H973" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26396,6 +26396,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>45449.2916666667</v>
+      </c>
+      <c r="B974" t="n">
+        <v>0</v>
+      </c>
+      <c r="C974" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D974" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E974" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F974" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G974" t="s">
+        <v>245</v>
+      </c>
+      <c r="H974" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26422,6 +26422,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>45450.2916666667</v>
+      </c>
+      <c r="B975" t="n">
+        <v>0</v>
+      </c>
+      <c r="C975" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D975" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E975" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F975" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G975" t="s">
+        <v>245</v>
+      </c>
+      <c r="H975" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26448,6 +26448,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>45453.2916666667</v>
+      </c>
+      <c r="B976" t="n">
+        <v>0</v>
+      </c>
+      <c r="C976" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D976" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E976" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F976" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G976" t="s">
+        <v>245</v>
+      </c>
+      <c r="H976" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26474,6 +26474,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>45454.2916666667</v>
+      </c>
+      <c r="B977" t="n">
+        <v>0</v>
+      </c>
+      <c r="C977" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D977" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E977" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F977" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G977" t="s">
+        <v>245</v>
+      </c>
+      <c r="H977" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B978" t="n">
+        <v>0</v>
+      </c>
+      <c r="C978" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D978" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E978" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F978" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G978" t="s">
+        <v>245</v>
+      </c>
+      <c r="H978" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26526,6 +26526,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>45456.2916666667</v>
+      </c>
+      <c r="B979" t="n">
+        <v>0</v>
+      </c>
+      <c r="C979" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D979" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E979" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F979" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G979" t="s">
+        <v>245</v>
+      </c>
+      <c r="H979" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26552,6 +26552,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>45457.2916666667</v>
+      </c>
+      <c r="B980" t="n">
+        <v>0</v>
+      </c>
+      <c r="C980" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D980" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E980" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F980" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G980" t="s">
+        <v>245</v>
+      </c>
+      <c r="H980" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26578,6 +26578,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B981" t="n">
+        <v>0</v>
+      </c>
+      <c r="C981" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D981" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E981" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F981" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G981" t="s">
+        <v>245</v>
+      </c>
+      <c r="H981" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26604,6 +26604,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>45461.2916666667</v>
+      </c>
+      <c r="B982" t="n">
+        <v>0</v>
+      </c>
+      <c r="C982" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D982" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E982" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F982" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G982" t="s">
+        <v>245</v>
+      </c>
+      <c r="H982" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26630,6 +26630,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>45462.2916666667</v>
+      </c>
+      <c r="B983" t="n">
+        <v>0</v>
+      </c>
+      <c r="C983" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D983" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E983" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F983" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G983" t="s">
+        <v>245</v>
+      </c>
+      <c r="H983" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26656,6 +26656,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>45463.2916666667</v>
+      </c>
+      <c r="B984" t="n">
+        <v>0</v>
+      </c>
+      <c r="C984" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D984" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E984" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F984" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G984" t="s">
+        <v>245</v>
+      </c>
+      <c r="H984" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26682,6 +26682,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>45464.2916666667</v>
+      </c>
+      <c r="B985" t="n">
+        <v>0</v>
+      </c>
+      <c r="C985" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D985" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E985" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F985" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G985" t="s">
+        <v>245</v>
+      </c>
+      <c r="H985" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26708,6 +26708,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>45467.2916666667</v>
+      </c>
+      <c r="B986" t="n">
+        <v>0</v>
+      </c>
+      <c r="C986" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D986" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E986" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F986" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G986" t="s">
+        <v>245</v>
+      </c>
+      <c r="H986" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26734,6 +26734,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>45468.2916666667</v>
+      </c>
+      <c r="B987" t="n">
+        <v>0</v>
+      </c>
+      <c r="C987" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D987" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E987" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F987" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G987" t="s">
+        <v>245</v>
+      </c>
+      <c r="H987" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26760,6 +26760,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>45469.2916666667</v>
+      </c>
+      <c r="B988" t="n">
+        <v>0</v>
+      </c>
+      <c r="C988" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D988" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E988" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F988" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G988" t="s">
+        <v>245</v>
+      </c>
+      <c r="H988" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26786,6 +26786,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>45470.2916666667</v>
+      </c>
+      <c r="B989" t="n">
+        <v>0</v>
+      </c>
+      <c r="C989" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D989" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E989" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F989" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G989" t="s">
+        <v>245</v>
+      </c>
+      <c r="H989" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26812,6 +26812,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>45471.2916666667</v>
+      </c>
+      <c r="B990" t="n">
+        <v>0</v>
+      </c>
+      <c r="C990" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D990" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E990" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F990" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G990" t="s">
+        <v>245</v>
+      </c>
+      <c r="H990" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26838,6 +26838,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>45474.2916666667</v>
+      </c>
+      <c r="B991" t="n">
+        <v>0</v>
+      </c>
+      <c r="C991" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D991" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E991" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F991" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G991" t="s">
+        <v>245</v>
+      </c>
+      <c r="H991" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26864,6 +26864,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>45475.2916666667</v>
+      </c>
+      <c r="B992" t="n">
+        <v>0</v>
+      </c>
+      <c r="C992" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D992" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E992" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F992" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G992" t="s">
+        <v>245</v>
+      </c>
+      <c r="H992" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26890,6 +26890,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>45476.2916666667</v>
+      </c>
+      <c r="B993" t="n">
+        <v>0</v>
+      </c>
+      <c r="C993" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D993" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E993" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F993" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G993" t="s">
+        <v>245</v>
+      </c>
+      <c r="H993" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26916,6 +26916,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>45477.2916666667</v>
+      </c>
+      <c r="B994" t="n">
+        <v>0</v>
+      </c>
+      <c r="C994" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D994" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E994" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F994" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G994" t="s">
+        <v>245</v>
+      </c>
+      <c r="H994" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26942,6 +26942,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>45478.2916666667</v>
+      </c>
+      <c r="B995" t="n">
+        <v>0</v>
+      </c>
+      <c r="C995" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D995" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E995" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F995" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G995" t="s">
+        <v>245</v>
+      </c>
+      <c r="H995" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26968,6 +26968,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>45481.2916666667</v>
+      </c>
+      <c r="B996" t="n">
+        <v>0</v>
+      </c>
+      <c r="C996" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D996" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E996" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F996" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G996" t="s">
+        <v>245</v>
+      </c>
+      <c r="H996" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -26994,6 +26994,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>45482.2916666667</v>
+      </c>
+      <c r="B997" t="n">
+        <v>0</v>
+      </c>
+      <c r="C997" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D997" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E997" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F997" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G997" t="s">
+        <v>245</v>
+      </c>
+      <c r="H997" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27020,6 +27020,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>45483.2916666667</v>
+      </c>
+      <c r="B998" t="n">
+        <v>0</v>
+      </c>
+      <c r="C998" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E998" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F998" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G998" t="s">
+        <v>245</v>
+      </c>
+      <c r="H998" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27046,6 +27046,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>45484.2916666667</v>
+      </c>
+      <c r="B999" t="n">
+        <v>0</v>
+      </c>
+      <c r="C999" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E999" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F999" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G999" t="s">
+        <v>245</v>
+      </c>
+      <c r="H999" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27072,6 +27072,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>45485.2916666667</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1000" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1000" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27098,6 +27098,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>45488.2916666667</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27124,6 +27124,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>45489.2916666667</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1002" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1002" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27150,6 +27150,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>45490.2916666667</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1003" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27176,6 +27176,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>45491.2916666667</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1004" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27202,6 +27202,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>45492.2916666667</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1005" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27228,6 +27228,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>45495.2916666667</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1006" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1006" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27254,6 +27254,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>45496.2916666667</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1007" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27280,6 +27280,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>45497.2916666667</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1008" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27306,6 +27306,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>45498.2916666667</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1009" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1009" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27332,6 +27332,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>45499.2916666667</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1010" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1010" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27358,6 +27358,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>45502.2916666667</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1011" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1011" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27384,6 +27384,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>45503.2916666667</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1012" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27410,6 +27410,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>45504.2916666667</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1013" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1013" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27436,6 +27436,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>45505.2916666667</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1014" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1014" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27462,6 +27462,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>45506.2916666667</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1015" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27488,6 +27488,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>45509.2916666667</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1016" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1016" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1017" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1017" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27540,6 +27540,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>45511.2916666667</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1018" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1018" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27566,6 +27566,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>45512.2916666667</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1019" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27592,6 +27592,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>45513.2916666667</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1020" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1020" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27618,6 +27618,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>45516.2916666667</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1021" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27644,6 +27644,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>45517.2916666667</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1022" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27670,6 +27670,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>45518.2916666667</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1023" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27696,6 +27696,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>45520.2916666667</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1024" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27722,6 +27722,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>45523.2916666667</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1025" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27748,6 +27748,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>45524.2916666667</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1026" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27774,6 +27774,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>45525.2916666667</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1027" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27800,6 +27800,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>45526.2916666667</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1028" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27826,6 +27826,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>45527.2916666667</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1029" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27852,6 +27852,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>45530.2916666667</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1030" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27878,6 +27878,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>45531.2916666667</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1031" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27904,6 +27904,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>45532.2916666667</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1032" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -766,7 +766,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -804,7 +804,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27930,6 +27930,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>45533.2916666667</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1033" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27956,6 +27956,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>45534.2916666667</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1034" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -27982,6 +27982,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>45537.2916666667</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1035" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28008,6 +28008,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>45538.2916666667</v>
+      </c>
+      <c r="B1036" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28034,6 +28034,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>45539.2916666667</v>
+      </c>
+      <c r="B1037" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28060,6 +28060,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>45540.2916666667</v>
+      </c>
+      <c r="B1038" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28086,6 +28086,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>45541.2916666667</v>
+      </c>
+      <c r="B1039" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28112,6 +28112,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>45544.2916666667</v>
+      </c>
+      <c r="B1040" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1040" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28138,6 +28138,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>45545.2916666667</v>
+      </c>
+      <c r="B1041" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1041" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1041" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28164,6 +28164,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>45546.2916666667</v>
+      </c>
+      <c r="B1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28190,6 +28190,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>45547.2916666667</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28216,6 +28216,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>45548.2916666667</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28242,6 +28242,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>45551.2916666667</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28268,6 +28268,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>45552.2916666667</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28294,6 +28294,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>45553.2916666667</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28320,6 +28320,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>45554.2916666667</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28346,6 +28346,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>45555.2916666667</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28372,6 +28372,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>45558.2916666667</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28398,6 +28398,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>45559.2916666667</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28424,6 +28424,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>45560.2916666667</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28450,6 +28450,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>45561.2916666667</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28476,6 +28476,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>45562.2916666667</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28502,6 +28502,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>45565.2916666667</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28528,6 +28528,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>45566.2916666667</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/FNX.MI.xlsx
+++ b/data/FNX.MI.xlsx
@@ -28554,6 +28554,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>45567.2916666667</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>0.0020000000949949</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
